--- a/Documentation/DocFonctionFAN.xlsx
+++ b/Documentation/DocFonctionFAN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Fichier</t>
   </si>
@@ -216,9 +216,6 @@
     <t>client/src/app/fiche</t>
   </si>
   <si>
-    <t>Ficge Component</t>
-  </si>
-  <si>
     <t>etudiantsList (Etudiant[])
 etudiants (Etudiant)</t>
   </si>
@@ -231,6 +228,112 @@
   </si>
   <si>
     <t>getEtudiants()</t>
+  </si>
+  <si>
+    <t>getInfoCompte()</t>
+  </si>
+  <si>
+    <t>appelle utilisateurService.getUser</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">appelle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authenticationService.logout()</t>
+    </r>
+  </si>
+  <si>
+    <t>Recupère toute les séance via service utilisateur</t>
+  </si>
+  <si>
+    <t>client/src/service/pdf-handler</t>
+  </si>
+  <si>
+    <t>generateFichePresence</t>
+  </si>
+  <si>
+    <t>Créer un pdf, utilise un plugin appelé
+Autotable pour créer des tables</t>
+  </si>
+  <si>
+    <t>presence : Object
+Matière/Enseignant/jour/location :String</t>
+  </si>
+  <si>
+    <t>digitallySignDocument</t>
+  </si>
+  <si>
+    <t>fileName (nom du PDF)</t>
+  </si>
+  <si>
+    <t>Encrypte le pdf donné par le nom</t>
+  </si>
+  <si>
+    <t>p12Buffer(filesync)
+pdfbuffer(filesync)</t>
+  </si>
+  <si>
+    <t>onSubmit()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">getSeance () </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decrepated</t>
+    </r>
+  </si>
+  <si>
+    <t>Enseignant(Prof)</t>
+  </si>
+  <si>
+    <t>getsSeanceByProf(enseignant)</t>
+  </si>
+  <si>
+    <t>getSeanceActuelle(enseignant,date)</t>
+  </si>
+  <si>
+    <t>enseignant(prof)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">va chercher TOUTES les seance enseignant
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appelle getSeanceActuelle()</t>
+    </r>
+  </si>
+  <si>
+    <t>cherche LA seance parmis tout les séances actuelles 
+SI okay = &gt; va chercher la séance actuelle
+Sinon =&gt; Affiche la séance prochaine
+Si pas de séance =&gt; Pas de séance en base</t>
+  </si>
+  <si>
+    <t>Fiche Component</t>
   </si>
   <si>
     <r>
@@ -255,18 +358,19 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Si ok &gt; Ajoute résultat dans la luste</t>
-    </r>
-  </si>
-  <si>
-    <t>getInfoCompte()</t>
-  </si>
-  <si>
-    <t>appelle utilisateurService.getUser</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">appelle </t>
+Tri par ordre alphabétique</t>
+    </r>
+  </si>
+  <si>
+    <t>set Horaire(nombre/nombre)</t>
+  </si>
+  <si>
+    <t>Créer un objet date à partir de données en string</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Récupère toutes les variables
+Appelle </t>
     </r>
     <r>
       <rPr>
@@ -276,8 +380,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>authenticationService.logout()</t>
-    </r>
+      <t>generateFichePresence(var...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Verifie que les champs sont valides</t>
+  </si>
+  <si>
+    <t>isValid()</t>
+  </si>
+  <si>
+    <t>login()</t>
+  </si>
+  <si>
+    <t>Appelle le service de login qui appelle login de l'API : ouput
+-&gt;Identifiant incorrect
+-&gt;formulaire incorrect 
+-&gt;Connextion</t>
+  </si>
+  <si>
+    <t>client/src/service/errorHandler</t>
+  </si>
+  <si>
+    <t>onTriggerAlert(problemMessage)</t>
+  </si>
+  <si>
+    <t>Appelle le service de renvoi d'un message d'erreur</t>
   </si>
 </sst>
 </file>
@@ -338,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -481,23 +620,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -509,35 +662,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -550,9 +685,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,27 +693,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,8 +738,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,17 +1080,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.21875" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
@@ -916,336 +1116,470 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+    <row r="4" spans="1:16" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="43.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:16" s="60" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="1:16" ht="43.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="8" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="10" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="24" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="24" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="25" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="68.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" s="14" customFormat="1" ht="68.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="56" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="56" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="39" t="s">
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="25" t="s">
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E21" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="25" t="s">
+    <row r="22" spans="1:5" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="23" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="23" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="38" t="s">
+    </row>
+    <row r="28" spans="1:5" s="61" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C28" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
